--- a/database/industries/darou/dekapsul/product/yearly_seprated.xlsx
+++ b/database/industries/darou/dekapsul/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\dekapsul\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dekapsul\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4945058-A191-48AC-91A3-C01870E2AB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95660C8E-D8DA-48AD-AAAB-227530A1E343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4044" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="47">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>دکپسول-تولید ژلاتین کپسول ایران</t>
@@ -631,12 +631,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -646,7 +646,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -658,7 +658,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -670,7 +670,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -680,7 +680,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -692,7 +692,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -704,7 +704,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -714,7 +714,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -736,7 +736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -746,7 +746,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -758,7 +758,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -782,7 +782,7 @@
         <v>6267074950</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
@@ -804,7 +804,7 @@
         <v>6267074950</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>15</v>
       </c>
@@ -816,7 +816,7 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>11</v>
       </c>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>16</v>
       </c>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>17</v>
       </c>
@@ -874,7 +874,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>11</v>
       </c>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>18</v>
       </c>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>19</v>
       </c>
@@ -944,7 +944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>21</v>
       </c>
@@ -962,11 +962,11 @@
       <c r="H20" s="13">
         <v>0</v>
       </c>
-      <c r="I20" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I20" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>22</v>
       </c>
@@ -988,7 +988,7 @@
         <v>6267074950</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -998,7 +998,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1008,7 +1008,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1018,7 +1018,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>23</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1050,7 +1050,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
         <v>24</v>
       </c>
@@ -1062,7 +1062,7 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>11</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>3456701</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>14</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>3456701</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>26</v>
       </c>
@@ -1120,7 +1120,7 @@
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>11</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>16</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>27</v>
       </c>
@@ -1178,7 +1178,7 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>11</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
         <v>18</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="14" t="s">
         <v>19</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
         <v>21</v>
       </c>
@@ -1268,11 +1268,11 @@
       <c r="H37" s="13">
         <v>0</v>
       </c>
-      <c r="I37" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I37" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="14" t="s">
         <v>22</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>3456701</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1304,7 +1304,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1314,7 +1314,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1324,7 +1324,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
         <v>28</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1356,7 +1356,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
         <v>29</v>
       </c>
@@ -1368,7 +1368,7 @@
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>11</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
         <v>31</v>
       </c>
@@ -1404,7 +1404,7 @@
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>11</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>32</v>
       </c>
@@ -1440,7 +1440,7 @@
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>11</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1474,7 +1474,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1484,7 +1484,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1494,7 +1494,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
         <v>33</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1526,7 +1526,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
         <v>34</v>
       </c>
@@ -1538,7 +1538,7 @@
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>11</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>-1620409</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
         <v>35</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>-1620409</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
         <v>36</v>
       </c>
@@ -1596,7 +1596,7 @@
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>11</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>37</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
         <v>38</v>
       </c>
@@ -1654,7 +1654,7 @@
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
         <v>11</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
         <v>39</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="14" t="s">
         <v>19</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
         <v>21</v>
       </c>
@@ -1744,11 +1744,11 @@
       <c r="H65" s="13">
         <v>0</v>
       </c>
-      <c r="I65" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I65" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="14" t="s">
         <v>22</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>-1620409</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1780,7 +1780,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1790,7 +1790,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1800,7 +1800,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
         <v>40</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1832,7 +1832,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
         <v>41</v>
       </c>
@@ -1844,7 +1844,7 @@
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
         <v>11</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>1836292</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
         <v>42</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>1836292</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
         <v>43</v>
       </c>
@@ -1902,7 +1902,7 @@
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
         <v>11</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="12" t="s">
         <v>44</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
         <v>45</v>
       </c>
@@ -1960,7 +1960,7 @@
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>11</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
         <v>46</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="14" t="s">
         <v>22</v>
       </c>

--- a/database/industries/darou/dekapsul/product/yearly_seprated.xlsx
+++ b/database/industries/darou/dekapsul/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dekapsul\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dekapsul\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95660C8E-D8DA-48AD-AAAB-227530A1E343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A79E9DF-1534-47A5-83C4-E46041F6BCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="47">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مقدار فروش داخلی</t>
   </si>
   <si>
@@ -61,28 +61,28 @@
     <t>عدد</t>
   </si>
   <si>
+    <t>جمع فروش داخلی</t>
+  </si>
+  <si>
+    <t>مقدار فروش خارجی</t>
+  </si>
+  <si>
+    <t>جمع فروش خارجی</t>
+  </si>
+  <si>
+    <t>مقدار فروش درآمد ارائه خدمات</t>
+  </si>
+  <si>
+    <t>جمع فروش خدمات</t>
+  </si>
+  <si>
+    <t>برگشت از فروش</t>
+  </si>
+  <si>
+    <t>ریال</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>جمع فروش داخلی</t>
-  </si>
-  <si>
-    <t>مقدار فروش خارجی</t>
-  </si>
-  <si>
-    <t>جمع فروش خارجی</t>
-  </si>
-  <si>
-    <t>مقدار فروش درآمد ارائه خدمات</t>
-  </si>
-  <si>
-    <t>جمع فروش خدمات</t>
-  </si>
-  <si>
-    <t>برگشت از فروش</t>
-  </si>
-  <si>
-    <t>ریال</t>
   </si>
   <si>
     <t>سایر / تخفیفات</t>
@@ -631,12 +631,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -646,7 +646,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -658,7 +658,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -670,7 +670,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -680,7 +680,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -692,7 +692,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -704,7 +704,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -714,7 +714,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -736,7 +736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -746,7 +746,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -758,7 +758,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -766,47 +766,47 @@
         <v>12</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="11">
+        <v>5610000000</v>
+      </c>
+      <c r="F11" s="11">
+        <v>6310494580</v>
+      </c>
+      <c r="G11" s="11">
+        <v>6368693180</v>
+      </c>
+      <c r="H11" s="11">
+        <v>6267074950</v>
+      </c>
+      <c r="I11" s="11">
+        <v>6233849000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F11" s="11">
-        <v>5610000000</v>
-      </c>
-      <c r="G11" s="11">
-        <v>6310494580</v>
-      </c>
-      <c r="H11" s="11">
-        <v>6368693180</v>
-      </c>
-      <c r="I11" s="11">
-        <v>6267074950</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>0</v>
+        <v>5610000000</v>
       </c>
       <c r="F12" s="13">
-        <v>5610000000</v>
+        <v>6310494580</v>
       </c>
       <c r="G12" s="13">
-        <v>6310494580</v>
+        <v>6368693180</v>
       </c>
       <c r="H12" s="13">
-        <v>6368693180</v>
+        <v>6267074950</v>
       </c>
       <c r="I12" s="13">
-        <v>6267074950</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6233849000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -816,7 +816,7 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>11</v>
       </c>
@@ -824,14 +824,14 @@
         <v>12</v>
       </c>
       <c r="D14" s="11"/>
-      <c r="E14" s="11" t="s">
-        <v>13</v>
+      <c r="E14" s="11">
+        <v>35000000</v>
       </c>
       <c r="F14" s="11">
-        <v>35000000</v>
+        <v>6420000</v>
       </c>
       <c r="G14" s="11">
-        <v>6420000</v>
+        <v>0</v>
       </c>
       <c r="H14" s="11">
         <v>0</v>
@@ -840,20 +840,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>0</v>
+        <v>35000000</v>
       </c>
       <c r="F15" s="13">
-        <v>35000000</v>
+        <v>6420000</v>
       </c>
       <c r="G15" s="13">
-        <v>6420000</v>
+        <v>0</v>
       </c>
       <c r="H15" s="13">
         <v>0</v>
@@ -862,9 +862,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -874,7 +874,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>11</v>
       </c>
@@ -882,8 +882,8 @@
         <v>12</v>
       </c>
       <c r="D17" s="11"/>
-      <c r="E17" s="11" t="s">
-        <v>13</v>
+      <c r="E17" s="11">
+        <v>0</v>
       </c>
       <c r="F17" s="11">
         <v>0</v>
@@ -898,9 +898,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -920,38 +920,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="D19" s="15"/>
+      <c r="E19" s="15">
+        <v>-27000000</v>
+      </c>
+      <c r="F19" s="15">
+        <v>-7919000</v>
+      </c>
+      <c r="G19" s="15">
+        <v>-2444000</v>
+      </c>
+      <c r="H19" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="15">
-        <v>-27000000</v>
-      </c>
-      <c r="G19" s="15">
-        <v>-7919000</v>
-      </c>
-      <c r="H19" s="15">
-        <v>-2444000</v>
-      </c>
       <c r="I19" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="13" t="s">
-        <v>13</v>
+      <c r="E20" s="13">
+        <v>0</v>
       </c>
       <c r="F20" s="13">
         <v>0</v>
@@ -966,29 +966,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15">
-        <v>0</v>
+        <v>5618000000</v>
       </c>
       <c r="F21" s="15">
-        <v>5618000000</v>
+        <v>6308995580</v>
       </c>
       <c r="G21" s="15">
-        <v>6308995580</v>
+        <v>6366249180</v>
       </c>
       <c r="H21" s="15">
-        <v>6366249180</v>
+        <v>6267074950</v>
       </c>
       <c r="I21" s="15">
-        <v>6267074950</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6233849000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -998,7 +998,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1008,7 +1008,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1018,7 +1018,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>23</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1050,7 +1050,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>24</v>
       </c>
@@ -1062,7 +1062,7 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>11</v>
       </c>
@@ -1070,45 +1070,45 @@
         <v>25</v>
       </c>
       <c r="D28" s="11"/>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="11">
+        <v>648738</v>
+      </c>
+      <c r="F28" s="11">
+        <v>908020</v>
+      </c>
+      <c r="G28" s="11">
+        <v>1839441</v>
+      </c>
+      <c r="H28" s="11">
+        <v>3456701</v>
+      </c>
+      <c r="I28" s="11">
+        <v>5516295</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F28" s="11">
-        <v>648738</v>
-      </c>
-      <c r="G28" s="11">
-        <v>908020</v>
-      </c>
-      <c r="H28" s="11">
-        <v>1839441</v>
-      </c>
-      <c r="I28" s="11">
-        <v>3456701</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13">
-        <v>0</v>
+        <v>648738</v>
       </c>
       <c r="F29" s="13">
-        <v>648738</v>
+        <v>908020</v>
       </c>
       <c r="G29" s="13">
-        <v>908020</v>
+        <v>1839441</v>
       </c>
       <c r="H29" s="13">
-        <v>1839441</v>
+        <v>3456701</v>
       </c>
       <c r="I29" s="13">
-        <v>3456701</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5516295</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>26</v>
       </c>
@@ -1120,7 +1120,7 @@
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>11</v>
       </c>
@@ -1128,14 +1128,14 @@
         <v>25</v>
       </c>
       <c r="D31" s="11"/>
-      <c r="E31" s="11" t="s">
-        <v>13</v>
+      <c r="E31" s="11">
+        <v>6018</v>
       </c>
       <c r="F31" s="11">
-        <v>6018</v>
+        <v>1018</v>
       </c>
       <c r="G31" s="11">
-        <v>1018</v>
+        <v>0</v>
       </c>
       <c r="H31" s="11">
         <v>0</v>
@@ -1144,20 +1144,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13">
-        <v>0</v>
+        <v>6018</v>
       </c>
       <c r="F32" s="13">
-        <v>6018</v>
+        <v>1018</v>
       </c>
       <c r="G32" s="13">
-        <v>1018</v>
+        <v>0</v>
       </c>
       <c r="H32" s="13">
         <v>0</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>27</v>
       </c>
@@ -1178,7 +1178,7 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1186,8 @@
         <v>25</v>
       </c>
       <c r="D34" s="11"/>
-      <c r="E34" s="11" t="s">
-        <v>13</v>
+      <c r="E34" s="11">
+        <v>0</v>
       </c>
       <c r="F34" s="11">
         <v>0</v>
@@ -1202,9 +1202,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -1224,31 +1224,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D36" s="15"/>
-      <c r="E36" s="15" t="s">
-        <v>13</v>
+      <c r="E36" s="15">
+        <v>-3014</v>
       </c>
       <c r="F36" s="15">
-        <v>-3014</v>
+        <v>-1129</v>
       </c>
       <c r="G36" s="15">
-        <v>-1129</v>
-      </c>
-      <c r="H36" s="15">
         <v>-391</v>
       </c>
+      <c r="H36" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="I36" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>21</v>
       </c>
@@ -1256,8 +1256,8 @@
         <v>25</v>
       </c>
       <c r="D37" s="13"/>
-      <c r="E37" s="13" t="s">
-        <v>13</v>
+      <c r="E37" s="13">
+        <v>0</v>
       </c>
       <c r="F37" s="13">
         <v>0</v>
@@ -1272,29 +1272,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15">
-        <v>0</v>
+        <v>651742</v>
       </c>
       <c r="F38" s="15">
-        <v>651742</v>
+        <v>907909</v>
       </c>
       <c r="G38" s="15">
-        <v>907909</v>
+        <v>1839050</v>
       </c>
       <c r="H38" s="15">
-        <v>1839050</v>
+        <v>3456701</v>
       </c>
       <c r="I38" s="15">
-        <v>3456701</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5516295</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1304,7 +1304,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1314,7 +1314,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1324,7 +1324,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
         <v>28</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1356,7 +1356,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>29</v>
       </c>
@@ -1368,7 +1368,7 @@
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>11</v>
       </c>
@@ -1376,23 +1376,23 @@
         <v>30</v>
       </c>
       <c r="D45" s="11"/>
-      <c r="E45" s="11" t="s">
-        <v>13</v>
+      <c r="E45" s="11">
+        <v>116</v>
       </c>
       <c r="F45" s="11">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="G45" s="11">
-        <v>144</v>
+        <v>289</v>
       </c>
       <c r="H45" s="11">
-        <v>289</v>
+        <v>552</v>
       </c>
       <c r="I45" s="11">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>31</v>
       </c>
@@ -1404,7 +1404,7 @@
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>11</v>
       </c>
@@ -1412,14 +1412,14 @@
         <v>30</v>
       </c>
       <c r="D47" s="11"/>
-      <c r="E47" s="11" t="s">
-        <v>13</v>
+      <c r="E47" s="11">
+        <v>172</v>
       </c>
       <c r="F47" s="11">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="G47" s="11">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="H47" s="11">
         <v>0</v>
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>32</v>
       </c>
@@ -1440,7 +1440,7 @@
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>11</v>
       </c>
@@ -1448,8 +1448,8 @@
         <v>30</v>
       </c>
       <c r="D49" s="11"/>
-      <c r="E49" s="11" t="s">
-        <v>13</v>
+      <c r="E49" s="11">
+        <v>0</v>
       </c>
       <c r="F49" s="11">
         <v>0</v>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1474,7 +1474,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1484,7 +1484,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1494,7 +1494,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>33</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1526,7 +1526,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>34</v>
       </c>
@@ -1538,7 +1538,7 @@
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>11</v>
       </c>
@@ -1546,45 +1546,45 @@
         <v>25</v>
       </c>
       <c r="D56" s="11"/>
-      <c r="E56" s="11" t="s">
-        <v>13</v>
+      <c r="E56" s="11">
+        <v>-360963</v>
       </c>
       <c r="F56" s="11">
-        <v>-360963</v>
+        <v>-516010</v>
       </c>
       <c r="G56" s="11">
-        <v>-516010</v>
+        <v>-773752</v>
       </c>
       <c r="H56" s="11">
-        <v>-773752</v>
+        <v>-1620409</v>
       </c>
       <c r="I56" s="11">
-        <v>-1620409</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2070101</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
       <c r="E57" s="13">
-        <v>0</v>
+        <v>-360963</v>
       </c>
       <c r="F57" s="13">
-        <v>-360963</v>
+        <v>-516010</v>
       </c>
       <c r="G57" s="13">
-        <v>-516010</v>
+        <v>-773752</v>
       </c>
       <c r="H57" s="13">
-        <v>-773752</v>
+        <v>-1620409</v>
       </c>
       <c r="I57" s="13">
-        <v>-1620409</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2070101</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>36</v>
       </c>
@@ -1596,7 +1596,7 @@
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>11</v>
       </c>
@@ -1604,14 +1604,14 @@
         <v>25</v>
       </c>
       <c r="D59" s="11"/>
-      <c r="E59" s="11" t="s">
-        <v>13</v>
+      <c r="E59" s="11">
+        <v>-2202</v>
       </c>
       <c r="F59" s="11">
-        <v>-2202</v>
+        <v>-518</v>
       </c>
       <c r="G59" s="11">
-        <v>-518</v>
+        <v>0</v>
       </c>
       <c r="H59" s="11">
         <v>0</v>
@@ -1620,20 +1620,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
       <c r="E60" s="13">
-        <v>0</v>
+        <v>-2202</v>
       </c>
       <c r="F60" s="13">
-        <v>-2202</v>
+        <v>-518</v>
       </c>
       <c r="G60" s="13">
-        <v>-518</v>
+        <v>0</v>
       </c>
       <c r="H60" s="13">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>38</v>
       </c>
@@ -1654,7 +1654,7 @@
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>11</v>
       </c>
@@ -1662,8 +1662,8 @@
         <v>25</v>
       </c>
       <c r="D62" s="11"/>
-      <c r="E62" s="11" t="s">
-        <v>13</v>
+      <c r="E62" s="11">
+        <v>0</v>
       </c>
       <c r="F62" s="11">
         <v>0</v>
@@ -1678,7 +1678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="12" t="s">
         <v>39</v>
       </c>
@@ -1700,31 +1700,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C64" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="15"/>
-      <c r="E64" s="15" t="s">
-        <v>13</v>
+      <c r="E64" s="15">
+        <v>1796</v>
       </c>
       <c r="F64" s="15">
-        <v>1796</v>
+        <v>654</v>
       </c>
       <c r="G64" s="15">
-        <v>654</v>
-      </c>
-      <c r="H64" s="15">
         <v>296</v>
       </c>
+      <c r="H64" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="I64" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>21</v>
       </c>
@@ -1732,8 +1732,8 @@
         <v>25</v>
       </c>
       <c r="D65" s="13"/>
-      <c r="E65" s="13" t="s">
-        <v>13</v>
+      <c r="E65" s="13">
+        <v>0</v>
       </c>
       <c r="F65" s="13">
         <v>0</v>
@@ -1748,29 +1748,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C66" s="15"/>
       <c r="D66" s="15"/>
       <c r="E66" s="15">
-        <v>0</v>
+        <v>-361369</v>
       </c>
       <c r="F66" s="15">
-        <v>-361369</v>
+        <v>-515874</v>
       </c>
       <c r="G66" s="15">
-        <v>-515874</v>
+        <v>-773456</v>
       </c>
       <c r="H66" s="15">
-        <v>-773456</v>
+        <v>-1620409</v>
       </c>
       <c r="I66" s="15">
-        <v>-1620409</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2070101</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1780,7 +1780,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1790,7 +1790,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1800,7 +1800,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B70" s="7" t="s">
         <v>40</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1832,7 +1832,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>41</v>
       </c>
@@ -1844,7 +1844,7 @@
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>11</v>
       </c>
@@ -1852,45 +1852,45 @@
         <v>25</v>
       </c>
       <c r="D73" s="11"/>
-      <c r="E73" s="11" t="s">
-        <v>13</v>
+      <c r="E73" s="11">
+        <v>287775</v>
       </c>
       <c r="F73" s="11">
-        <v>287775</v>
+        <v>392010</v>
       </c>
       <c r="G73" s="11">
-        <v>392010</v>
+        <v>1065689</v>
       </c>
       <c r="H73" s="11">
-        <v>1065689</v>
+        <v>1836292</v>
       </c>
       <c r="I73" s="11">
-        <v>1836292</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3446194</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
       <c r="E74" s="13">
-        <v>0</v>
+        <v>287775</v>
       </c>
       <c r="F74" s="13">
-        <v>287775</v>
+        <v>392010</v>
       </c>
       <c r="G74" s="13">
-        <v>392010</v>
+        <v>1065689</v>
       </c>
       <c r="H74" s="13">
-        <v>1065689</v>
+        <v>1836292</v>
       </c>
       <c r="I74" s="13">
-        <v>1836292</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3446194</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>43</v>
       </c>
@@ -1902,7 +1902,7 @@
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>11</v>
       </c>
@@ -1910,14 +1910,14 @@
         <v>25</v>
       </c>
       <c r="D76" s="11"/>
-      <c r="E76" s="11" t="s">
-        <v>13</v>
+      <c r="E76" s="11">
+        <v>3816</v>
       </c>
       <c r="F76" s="11">
-        <v>3816</v>
+        <v>500</v>
       </c>
       <c r="G76" s="11">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H76" s="11">
         <v>0</v>
@@ -1926,20 +1926,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13">
-        <v>0</v>
+        <v>3816</v>
       </c>
       <c r="F77" s="13">
-        <v>3816</v>
+        <v>500</v>
       </c>
       <c r="G77" s="13">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H77" s="13">
         <v>0</v>
@@ -1948,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>45</v>
       </c>
@@ -1960,7 +1960,7 @@
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>11</v>
       </c>
@@ -1968,8 +1968,8 @@
         <v>25</v>
       </c>
       <c r="D79" s="11"/>
-      <c r="E79" s="11" t="s">
-        <v>13</v>
+      <c r="E79" s="11">
+        <v>0</v>
       </c>
       <c r="F79" s="11">
         <v>0</v>
@@ -1984,7 +1984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="12" t="s">
         <v>46</v>
       </c>
@@ -2006,26 +2006,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
       <c r="E81" s="15">
-        <v>0</v>
+        <v>291591</v>
       </c>
       <c r="F81" s="15">
-        <v>291591</v>
+        <v>392510</v>
       </c>
       <c r="G81" s="15">
-        <v>392510</v>
+        <v>1065689</v>
       </c>
       <c r="H81" s="15">
-        <v>1065689</v>
+        <v>1836292</v>
       </c>
       <c r="I81" s="15">
-        <v>1836292</v>
+        <v>3446194</v>
       </c>
     </row>
   </sheetData>
